--- a/adjacent data -- fire.xlsx
+++ b/adjacent data -- fire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,12 +453,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>G</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>P</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -468,12 +468,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>D</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>E</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -483,12 +483,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -498,12 +498,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>H</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -513,12 +513,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -528,12 +528,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>S</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -543,12 +543,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>F</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>H</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -558,12 +558,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>J</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>L</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -573,7 +573,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>I</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -588,12 +588,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>L</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -603,12 +603,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>K</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>P</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -618,12 +618,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>R</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -633,12 +633,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>P</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -648,12 +648,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>H</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -663,12 +663,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -678,12 +678,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -693,12 +693,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>G</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -708,12 +708,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>E</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -723,12 +723,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -738,12 +738,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>E</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -753,12 +753,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>N</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -768,12 +768,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>L</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -783,12 +783,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>R</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -798,12 +798,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>J</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -813,12 +813,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>K</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -828,12 +828,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>S</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -843,12 +843,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>G</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>P</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -858,12 +858,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>E</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -873,7 +873,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -888,12 +888,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>H</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -903,12 +903,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>D</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -918,12 +918,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>E</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>S</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -933,12 +933,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>F</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -948,12 +948,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>J</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>L</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -963,12 +963,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>I</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>P</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -983,7 +983,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>L</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -993,12 +993,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>K</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>P</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -1008,12 +1008,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>R</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -1023,12 +1023,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>P</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -1038,15 +1038,225 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
           <t>N</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
+      <c r="C49" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
         <v>20</v>
       </c>
     </row>

--- a/adjacent data -- fire.xlsx
+++ b/adjacent data -- fire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,12 +453,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -468,12 +468,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>G</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -498,12 +498,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>D</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -513,12 +513,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>N</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -528,12 +528,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>I</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>J</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -543,12 +543,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>I</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -558,12 +558,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>G</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -573,12 +573,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>J</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>R</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -588,12 +588,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>N</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -603,12 +603,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>R</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -618,12 +618,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>L</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -633,12 +633,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>H</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -648,12 +648,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>E</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>I</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -663,12 +663,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>O</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>P</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -678,12 +678,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>S</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -693,12 +693,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -708,12 +708,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>J</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>K</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -723,12 +723,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>N</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -738,12 +738,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -753,12 +753,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>J</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -768,12 +768,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>I</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -788,7 +788,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>N</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -798,12 +798,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>H</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -813,12 +813,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -828,12 +828,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>G</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -843,12 +843,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -863,7 +863,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -873,12 +873,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>N</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -888,12 +888,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>I</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>J</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -903,12 +903,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>I</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -918,12 +918,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>G</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -933,12 +933,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>J</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>R</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -948,12 +948,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>N</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -963,12 +963,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>R</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -978,7 +978,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>G</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -993,12 +993,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>H</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -1008,12 +1008,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>I</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -1023,7 +1023,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>O</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1038,12 +1038,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>S</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -1053,12 +1053,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -1068,12 +1068,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>J</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>K</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -1083,12 +1083,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>N</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -1098,12 +1098,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -1113,12 +1113,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>J</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -1128,12 +1128,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>I</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -1143,12 +1143,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -1158,105 +1158,15 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>H</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>J</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>K</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="C55" t="n">
         <v>20</v>
       </c>
     </row>

--- a/adjacent data -- fire.xlsx
+++ b/adjacent data -- fire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,12 +453,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>G</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>P</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -473,7 +473,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -488,7 +488,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>N</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -498,7 +498,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -513,12 +513,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>F</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>N</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -533,7 +533,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -543,12 +543,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>J</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -558,12 +558,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>K</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -573,7 +573,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -588,12 +588,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>I</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -603,7 +603,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>N</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -618,12 +618,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -633,12 +633,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>P</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>R</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -648,12 +648,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>H</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>N</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -663,12 +663,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>S</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -678,12 +678,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>E</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -693,12 +693,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>I</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>L</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -708,12 +708,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -723,12 +723,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -738,12 +738,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>L</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -753,12 +753,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>I</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -768,7 +768,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>N</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -783,12 +783,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>G</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -798,12 +798,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>E</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>K</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -813,12 +813,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>D</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>I</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -828,12 +828,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -843,12 +843,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>S</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -858,12 +858,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -873,12 +873,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>P</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -888,12 +888,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>E</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -903,12 +903,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>N</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -918,12 +918,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -933,12 +933,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>F</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -948,12 +948,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>I</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -963,12 +963,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>J</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>L</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -978,12 +978,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>K</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -993,12 +993,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>R</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -1008,7 +1008,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1023,12 +1023,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>N</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>R</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -1038,12 +1038,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -1053,12 +1053,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>R</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -1068,12 +1068,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>H</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>N</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -1083,12 +1083,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -1098,12 +1098,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -1113,12 +1113,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>I</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>L</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -1128,12 +1128,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -1148,7 +1148,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -1158,15 +1158,120 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>L</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
           <t>O</t>
         </is>
       </c>
-      <c r="C49" t="n">
+      <c r="C54" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
         <v>20</v>
       </c>
     </row>
